--- a/static/images/table_data.xlsx
+++ b/static/images/table_data.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -404,49 +404,59 @@
         <v>PRICE</v>
       </c>
       <c r="H1" t="str">
-        <v>STATUS</v>
+        <v>STAUS</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" t="str">
-        <v>Add stock</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Akshaya</v>
+        <v>Reduce stock</v>
       </c>
       <c r="E2" s="1">
-        <v>44996</v>
+        <v>45057</v>
       </c>
       <c r="F2">
-        <v>55</v>
-      </c>
-      <c r="I2" t="str">
-        <v>View / EditDelete</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="str">
+        <v>Add stock</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45057</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="str">
+        <v>Add stock</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45057</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="str">
         <v>Open stk</v>
       </c>
-      <c r="D3" t="str">
-        <v>Akshaya</v>
-      </c>
-      <c r="E3" s="1">
-        <v>44996</v>
-      </c>
-      <c r="F3">
-        <v>412</v>
-      </c>
-      <c r="G3" t="str">
-        <v>₹5</v>
-      </c>
-      <c r="I3" t="str">
-        <v>View / EditDelete</v>
+      <c r="E5" t="str">
+        <v>13-11-2023</v>
+      </c>
+      <c r="F5">
+        <v>500</v>
+      </c>
+      <c r="G5" t="str">
+        <v>₹20</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I5"/>
   </ignoredErrors>
 </worksheet>
 </file>